--- a/scripts/empleados.xlsx
+++ b/scripts/empleados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhami\Desktop\kdoshRepositorie\Asistencia\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhami\Desktop\kdoshRepositorie\Asistencia\asistent\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59254982-BF76-4A20-8509-8F8798AF44DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6F7174-49C9-400F-857F-FC4E556AB86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17805" yWindow="5085" windowWidth="29010" windowHeight="15345" xr2:uid="{780A47D4-609A-4425-8D92-5DE4B22E0441}"/>
+    <workbookView xWindow="13335" yWindow="645" windowWidth="29010" windowHeight="15345" xr2:uid="{780A47D4-609A-4425-8D92-5DE4B22E0441}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="278">
   <si>
     <t>Nombre</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>JEFE DE COMPRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sabado </t>
   </si>
   <si>
     <t>AVILA MODESTO LENI LILIBETH</t>
@@ -890,7 +887,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,6 +914,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -938,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -948,6 +959,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1342,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CE4B37-60B0-4B9B-A7BB-6730622C173B}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1365,7 @@
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1391,7 +1403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1409,7 +1421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1427,7 +1439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1445,7 +1457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1463,7 +1475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1478,105 +1490,105 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1589,12 +1601,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -1604,39 +1616,40 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
@@ -1645,16 +1658,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
@@ -1663,34 +1676,34 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
@@ -1699,16 +1712,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
@@ -1717,52 +1730,52 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
@@ -1771,16 +1784,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
@@ -1789,37 +1802,37 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>22</v>
@@ -1827,16 +1840,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="s">
@@ -1845,55 +1858,55 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>10</v>
@@ -1901,16 +1914,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
@@ -1919,34 +1932,34 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3" t="s">
@@ -1955,16 +1968,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3" t="s">
@@ -1973,52 +1986,52 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3" t="s">
@@ -2027,10 +2040,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>8</v>
@@ -2045,34 +2058,34 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="3" t="s">
@@ -2081,16 +2094,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="3" t="s">
@@ -2099,52 +2112,52 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="3" t="s">
@@ -2153,10 +2166,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
@@ -2171,31 +2184,31 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>13</v>
@@ -2207,19 +2220,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>26</v>
@@ -2227,52 +2240,52 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="3" t="s">
@@ -2281,16 +2294,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="3" t="s">
@@ -2299,36 +2312,36 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="3" t="s">
@@ -2337,10 +2350,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>8</v>
@@ -2355,55 +2368,55 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>10</v>
@@ -2411,16 +2424,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="3" t="s">
@@ -2429,34 +2442,34 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="3" t="s">
@@ -2465,16 +2478,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="3" t="s">
@@ -2483,52 +2496,52 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="C65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="3" t="s">
@@ -2537,10 +2550,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>8</v>
@@ -2555,34 +2568,34 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="3" t="s">
@@ -2591,16 +2604,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="3" t="s">
@@ -2609,52 +2622,52 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="3" t="s">
@@ -2663,13 +2676,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>13</v>
@@ -2681,34 +2694,34 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="3" t="s">
@@ -2717,16 +2730,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="3" t="s">
@@ -2735,52 +2748,52 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="C79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="3" t="s">
@@ -2789,16 +2802,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="3" t="s">
@@ -2807,34 +2820,34 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="D81" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="3" t="s">
@@ -2843,16 +2856,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="3" t="s">
@@ -2861,52 +2874,52 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="3" t="s">
@@ -2915,16 +2928,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="3" t="s">
@@ -2933,34 +2946,34 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="C89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="3" t="s">
@@ -2969,10 +2982,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>8</v>
@@ -2981,13 +2994,14 @@
         <v>13</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>